--- a/excel/src/main/resources/template/bankCooperation.xlsx
+++ b/excel/src/main/resources/template/bankCooperation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView windowWidth="19200" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="各银行给予的授信情况" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>各银行给予的授信情况</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>{year}各银行给予的授信情况</t>
   </si>
   <si>
     <t>下拉框</t>
@@ -50,7 +50,25 @@
     <t>{list.credit}</t>
   </si>
   <si>
-    <t>{list.creditValidity}</t>
+    <t>静态数值2： {list.creditValidity}</t>
+  </si>
+  <si>
+    <t>测试静态数值1</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>{totalLoan}</t>
+  </si>
+  <si>
+    <t>{list2.serialNumber}</t>
+  </si>
+  <si>
+    <t>信托</t>
+  </si>
+  <si>
+    <t>{year}</t>
   </si>
   <si>
     <t>项目合作情况</t>
@@ -70,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -98,7 +116,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,97 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -213,12 +208,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -235,13 +246,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,187 +274,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,39 +473,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +507,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,6 +535,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -570,145 +582,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,18 +1059,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="26.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="24.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="26.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="20.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
@@ -1102,7 +1115,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:5">
+    <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,6 +1127,33 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1165,7 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C8">
       <formula1>"其他,信托,资产"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1140,7 +1180,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1153,7 +1193,7 @@
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1173,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:4">
@@ -1184,12 +1224,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
